--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2500" yWindow="0" windowWidth="33320" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>clause</t>
   </si>
@@ -244,15 +244,9 @@
     <t>detailViewFileName</t>
   </si>
   <si>
-    <t>config/assets/aa_m_logs_detail.html</t>
-  </si>
-  <si>
     <t>listViewFileName</t>
   </si>
   <si>
-    <t>config/assets/aa_m_logs_list.html</t>
-  </si>
-  <si>
     <t>security</t>
   </si>
   <si>
@@ -290,6 +284,93 @@
   </si>
   <si>
     <t>maintenance_logs</t>
+  </si>
+  <si>
+    <t>config/tables/maintenance_logs/html/maintenance_logs_detail.html</t>
+  </si>
+  <si>
+    <t>config/tables/maintenance_logs/html/maintenance_logs_list.html</t>
+  </si>
+  <si>
+    <t>type_of_maintenance</t>
+  </si>
+  <si>
+    <t>Type of Maintenance Performed</t>
+  </si>
+  <si>
+    <t>Tipo de mantenimiento realizado</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>maint_types</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Preventative</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>preventative</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Reparar</t>
+  </si>
+  <si>
+    <t>Preventivo</t>
+  </si>
+  <si>
+    <t>Inspección</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Mejorar</t>
+  </si>
+  <si>
+    <t>spare_parts</t>
+  </si>
+  <si>
+    <t>Enter spare parts</t>
+  </si>
+  <si>
+    <t>Entrar piezas de repuesto</t>
+  </si>
+  <si>
+    <t>Haga una lista de repuestos</t>
+  </si>
+  <si>
+    <t>Make a list of spare parts</t>
+  </si>
+  <si>
+    <t>Select type of maintenance</t>
+  </si>
+  <si>
+    <t>Seleccione el tipo de mantenimiento</t>
   </si>
 </sst>
 </file>
@@ -364,7 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -786,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B5 B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -799,8 +883,10 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="8" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,7 +1030,50 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -961,21 +1090,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="B5 C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -984,6 +1114,79 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1327,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1132,7 +1335,7 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1200,12 +1403,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="B5 A7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="8.5" customWidth="1"/>
+    <col min="1" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
@@ -1258,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1269,13 +1474,13 @@
         <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1283,16 +1488,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1300,50 +1505,50 @@
         <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="0" windowWidth="33320" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>repair</t>
   </si>
   <si>
-    <t>retrofit</t>
-  </si>
-  <si>
     <t>preventative</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>Seleccione el tipo de mantenimiento</t>
+  </si>
+  <si>
+    <t>upgrade</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1046,10 +1046,10 @@
         <v>90</v>
       </c>
       <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1057,19 +1057,19 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1130,7 +1130,7 @@
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2920" yWindow="1300" windowWidth="28360" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="176">
   <si>
     <t>clause</t>
   </si>
@@ -352,12 +352,6 @@
     <t>spare_parts</t>
   </si>
   <si>
-    <t>Enter spare parts</t>
-  </si>
-  <si>
-    <t>Entrar piezas de repuesto</t>
-  </si>
-  <si>
     <t>Haga una lista de repuestos</t>
   </si>
   <si>
@@ -371,13 +365,205 @@
   </si>
   <si>
     <t>upgrade</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>addtl_spare_parts</t>
+  </si>
+  <si>
+    <t>Spare Parts</t>
+  </si>
+  <si>
+    <t>Enter additional spare parts</t>
+  </si>
+  <si>
+    <t>Entrar adicional piezas de repuesto</t>
+  </si>
+  <si>
+    <t>Piezas de Repuesto</t>
+  </si>
+  <si>
+    <t>Select spare parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Seleccione piezas de repuestos</t>
+  </si>
+  <si>
+    <t>common_spare_parts</t>
+  </si>
+  <si>
+    <t>condenser_fan</t>
+  </si>
+  <si>
+    <t>electric_compressor</t>
+  </si>
+  <si>
+    <t>thermocouple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charging_cylinder </t>
+  </si>
+  <si>
+    <t>thermometer</t>
+  </si>
+  <si>
+    <t>solar_compressor</t>
+  </si>
+  <si>
+    <t>rotary_fan</t>
+  </si>
+  <si>
+    <t>leak_detector</t>
+  </si>
+  <si>
+    <t>gas_regulator</t>
+  </si>
+  <si>
+    <t>hose</t>
+  </si>
+  <si>
+    <t>fridge_tag</t>
+  </si>
+  <si>
+    <t>refrigerant</t>
+  </si>
+  <si>
+    <t>thermostat</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>burner</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>voltage_regulator</t>
+  </si>
+  <si>
+    <t>door_gasket</t>
+  </si>
+  <si>
+    <t>Condenser Fan</t>
+  </si>
+  <si>
+    <t>Thermostat</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>Refrigerant</t>
+  </si>
+  <si>
+    <t>Electric Compressor</t>
+  </si>
+  <si>
+    <t>Thermocouple</t>
+  </si>
+  <si>
+    <t>Charging Cylinder</t>
+  </si>
+  <si>
+    <t>Thermometer</t>
+  </si>
+  <si>
+    <t>Solar Compressor</t>
+  </si>
+  <si>
+    <t>Rotary Fan</t>
+  </si>
+  <si>
+    <t>Leak Detector</t>
+  </si>
+  <si>
+    <t>Gas Regulator</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>Fridge Tag</t>
+  </si>
+  <si>
+    <t>Burner</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Door Gasket</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Quemador</t>
+  </si>
+  <si>
+    <t>Cilindro de carga</t>
+  </si>
+  <si>
+    <t>Ventilador Condensador</t>
+  </si>
+  <si>
+    <t>La Junta de la Puerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Compresor Eléctrico</t>
+  </si>
+  <si>
+    <t>Etiqueta Frigorífico</t>
+  </si>
+  <si>
+    <t>Fusible</t>
+  </si>
+  <si>
+    <t>Regulador de Gas</t>
+  </si>
+  <si>
+    <t>Manguera</t>
+  </si>
+  <si>
+    <t>Detector de Fugas</t>
+  </si>
+  <si>
+    <t>Relé</t>
+  </si>
+  <si>
+    <t>Refrigerante</t>
+  </si>
+  <si>
+    <t>Ventilador Rotatorio</t>
+  </si>
+  <si>
+    <t>Compresor Solar</t>
+  </si>
+  <si>
+    <t>Par Termoeléctrico</t>
+  </si>
+  <si>
+    <t>Termostato</t>
+  </si>
+  <si>
+    <t>Termómetro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Regulador de Voltaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -415,6 +601,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -439,13 +641,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,11 +706,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="40">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -881,7 +1161,7 @@
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" customWidth="1"/>
@@ -1046,34 +1326,57 @@
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="C9" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+      <c r="D9" t="s">
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>107</v>
       </c>
       <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1090,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1138,7 +1441,7 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -1188,6 +1491,264 @@
       <c r="D7" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" customHeight="1">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" customHeight="1">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1300" windowWidth="28360" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="5440" yWindow="1700" windowWidth="28360" windowHeight="19560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>clause</t>
   </si>
@@ -401,51 +401,24 @@
     <t>electric_compressor</t>
   </si>
   <si>
-    <t>thermocouple</t>
-  </si>
-  <si>
     <t xml:space="preserve">charging_cylinder </t>
   </si>
   <si>
-    <t>thermometer</t>
-  </si>
-  <si>
     <t>solar_compressor</t>
   </si>
   <si>
     <t>rotary_fan</t>
   </si>
   <si>
-    <t>leak_detector</t>
-  </si>
-  <si>
-    <t>gas_regulator</t>
-  </si>
-  <si>
-    <t>hose</t>
-  </si>
-  <si>
     <t>fridge_tag</t>
   </si>
   <si>
-    <t>refrigerant</t>
-  </si>
-  <si>
     <t>thermostat</t>
   </si>
   <si>
     <t>relay</t>
   </si>
   <si>
-    <t>burner</t>
-  </si>
-  <si>
-    <t>fuse</t>
-  </si>
-  <si>
-    <t>voltage_regulator</t>
-  </si>
-  <si>
     <t>door_gasket</t>
   </si>
   <si>
@@ -458,52 +431,22 @@
     <t>Relay</t>
   </si>
   <si>
-    <t>Refrigerant</t>
-  </si>
-  <si>
     <t>Electric Compressor</t>
   </si>
   <si>
-    <t>Thermocouple</t>
-  </si>
-  <si>
     <t>Charging Cylinder</t>
   </si>
   <si>
-    <t>Thermometer</t>
-  </si>
-  <si>
     <t>Solar Compressor</t>
   </si>
   <si>
     <t>Rotary Fan</t>
   </si>
   <si>
-    <t>Leak Detector</t>
-  </si>
-  <si>
-    <t>Gas Regulator</t>
-  </si>
-  <si>
-    <t>Hose</t>
-  </si>
-  <si>
     <t>Fridge Tag</t>
   </si>
   <si>
-    <t>Burner</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
     <t>Door Gasket</t>
-  </si>
-  <si>
-    <t>Voltage Regulator</t>
-  </si>
-  <si>
-    <t>Quemador</t>
   </si>
   <si>
     <t>Cilindro de carga</t>
@@ -522,41 +465,16 @@
     <t>Etiqueta Frigorífico</t>
   </si>
   <si>
-    <t>Fusible</t>
-  </si>
-  <si>
-    <t>Regulador de Gas</t>
-  </si>
-  <si>
-    <t>Manguera</t>
-  </si>
-  <si>
-    <t>Detector de Fugas</t>
-  </si>
-  <si>
     <t>Relé</t>
   </si>
   <si>
-    <t>Refrigerante</t>
-  </si>
-  <si>
     <t>Ventilador Rotatorio</t>
   </si>
   <si>
     <t>Compresor Solar</t>
   </si>
   <si>
-    <t>Par Termoeléctrico</t>
-  </si>
-  <si>
     <t>Termostato</t>
-  </si>
-  <si>
-    <t>Termómetro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Regulador de Voltaje</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1393,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1497,13 +1415,13 @@
         <v>121</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>158</v>
+        <v>135</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1511,13 +1429,13 @@
         <v>121</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1525,41 +1443,41 @@
         <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" customHeight="1">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1567,13 +1485,13 @@
         <v>121</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1581,13 +1499,13 @@
         <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1595,13 +1513,13 @@
         <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1609,146 +1527,20 @@
         <v>121</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>167</v>
-      </c>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" customHeight="1">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="10"/>
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1700" windowWidth="28360" windowHeight="19560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11060" yWindow="2680" windowWidth="28360" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>clause</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>upgrade</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
   </si>
   <si>
     <t>addtl_spare_parts</t>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>Termostato</t>
+  </si>
+  <si>
+    <t>select_multiple_inline</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1250,51 +1250,65 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="C11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="D9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>115</v>
       </c>
-      <c r="G9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G12" t="s">
         <v>116</v>
       </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1313,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1412,128 +1426,128 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" customHeight="1">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\cold-chain\cold-chain-app-designer\app\config\tables\maintenance_logs\forms\maintenance_logs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="2680" windowWidth="28360" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="11055" yWindow="2685" windowWidth="28365" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="205">
   <si>
     <t>clause</t>
   </si>
@@ -97,12 +102,6 @@
     <t>Fecha de Servicio</t>
   </si>
   <si>
-    <t>Enter the date of service</t>
-  </si>
-  <si>
-    <t>Fecha de servicio</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -313,9 +312,6 @@
     <t>Preventative</t>
   </si>
   <si>
-    <t>Inspection</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -325,9 +321,6 @@
     <t>preventative</t>
   </si>
   <si>
-    <t>inspection</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -337,18 +330,9 @@
     <t>Preventivo</t>
   </si>
   <si>
-    <t>Inspección</t>
-  </si>
-  <si>
     <t>Otro</t>
   </si>
   <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>Mejorar</t>
-  </si>
-  <si>
     <t>spare_parts</t>
   </si>
   <si>
@@ -362,9 +346,6 @@
   </si>
   <si>
     <t>Seleccione el tipo de mantenimiento</t>
-  </si>
-  <si>
-    <t>upgrade</t>
   </si>
   <si>
     <t>addtl_spare_parts</t>
@@ -475,13 +456,205 @@
   </si>
   <si>
     <t>select_multiple_inline</t>
+  </si>
+  <si>
+    <t>serviced_by</t>
+  </si>
+  <si>
+    <t>serviced_by_type</t>
+  </si>
+  <si>
+    <t>technician_name</t>
+  </si>
+  <si>
+    <t>Enter the date of last service</t>
+  </si>
+  <si>
+    <t>Fecha  del último servicio</t>
+  </si>
+  <si>
+    <t>next_date_serviced</t>
+  </si>
+  <si>
+    <t>Next Date Serviced</t>
+  </si>
+  <si>
+    <t>Próxima Fecha de Servicio</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>repair_types</t>
+  </si>
+  <si>
+    <t>type_of_repair</t>
+  </si>
+  <si>
+    <t>Type of Repair</t>
+  </si>
+  <si>
+    <t>preventative_maint_types</t>
+  </si>
+  <si>
+    <t>type_of_preventative_maintenance</t>
+  </si>
+  <si>
+    <t>Type of Preventative Maintenance</t>
+  </si>
+  <si>
+    <t>Serviced By</t>
+  </si>
+  <si>
+    <t>Atendido por</t>
+  </si>
+  <si>
+    <t>Who performed the service?</t>
+  </si>
+  <si>
+    <t>¿Quién realizó el servicio?</t>
+  </si>
+  <si>
+    <t>Technician Name</t>
+  </si>
+  <si>
+    <t>Nombre del técnico</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre del técnico</t>
+  </si>
+  <si>
+    <t>Enter technician name</t>
+  </si>
+  <si>
+    <t>warranty_service_provider</t>
+  </si>
+  <si>
+    <t>Warranty/Service Provider</t>
+  </si>
+  <si>
+    <t>cce_technician</t>
+  </si>
+  <si>
+    <t>CCE Technician</t>
+  </si>
+  <si>
+    <t>facility_staff</t>
+  </si>
+  <si>
+    <t>Facility Staff</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>fridge_dryer</t>
+  </si>
+  <si>
+    <t>Fridge Dryer</t>
+  </si>
+  <si>
+    <t>electronic_control_unit</t>
+  </si>
+  <si>
+    <t>Electronic Control Unit</t>
+  </si>
+  <si>
+    <t>hinges</t>
+  </si>
+  <si>
+    <t>Hinges</t>
+  </si>
+  <si>
+    <t>need_data</t>
+  </si>
+  <si>
+    <t>Need Data</t>
+  </si>
+  <si>
+    <t>clean_solar_panels</t>
+  </si>
+  <si>
+    <t>Clean solar panels</t>
+  </si>
+  <si>
+    <t>clean_coils</t>
+  </si>
+  <si>
+    <t>Clean coils</t>
+  </si>
+  <si>
+    <t>Necesita Datos</t>
+  </si>
+  <si>
+    <t>Garantía / Proveedor de Servicios</t>
+  </si>
+  <si>
+    <t>CCE Técnico</t>
+  </si>
+  <si>
+    <t>Personal de las Facilidades</t>
+  </si>
+  <si>
+    <t>Secador de Refrigerador</t>
+  </si>
+  <si>
+    <t>Unidad de Control Electrónico</t>
+  </si>
+  <si>
+    <t>Bisagra</t>
+  </si>
+  <si>
+    <t>data('type_of_maintenance') === 'repair'</t>
+  </si>
+  <si>
+    <t>Ingrese la próxima fecha de servicio</t>
+  </si>
+  <si>
+    <t>Enter the next date serviced</t>
+  </si>
+  <si>
+    <t>Tipo de Reparación</t>
+  </si>
+  <si>
+    <t>Tipo de Mantenimiento Preventivo</t>
+  </si>
+  <si>
+    <t>Select type of repair</t>
+  </si>
+  <si>
+    <t>Seleccione tipo de reparación</t>
+  </si>
+  <si>
+    <t>Seleccione tipo de mantenimiento</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>maintenance_log_image</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Take a picture</t>
+  </si>
+  <si>
+    <t>Toma una foto</t>
+  </si>
+  <si>
+    <t>data('type_of_maintenance') === 'preventative'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -533,6 +706,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -601,7 +793,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -630,6 +822,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -743,6 +940,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1068,27 +1273,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="39.5" customWidth="1"/>
     <col min="10" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1338,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1353,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1174,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1186,135 +1391,333 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" t="s">
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="C11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1325,236 +1728,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>112</v>
       </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" customHeight="1">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1575,69 +2078,69 @@
       <selection activeCell="A3" activeCellId="1" sqref="B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" customWidth="1"/>
-    <col min="8" max="8" width="38.83203125" customWidth="1"/>
+    <col min="7" max="7" width="47.125" customWidth="1"/>
+    <col min="8" max="8" width="38.875" customWidth="1"/>
     <col min="9" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1659,22 +2162,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1683,75 +2186,75 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B5" s="6">
         <v>20170804</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1773,149 +2276,149 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="2685" windowWidth="28365" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="4" r:id="rId4"/>
     <sheet name="properties" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="397">
   <si>
     <t>clause</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>Otro</t>
-  </si>
-  <si>
-    <t>spare_parts</t>
   </si>
   <si>
     <t>Haga una lista de repuestos</t>
@@ -648,6 +645,585 @@
   </si>
   <si>
     <t>data('type_of_maintenance') === 'preventative'</t>
+  </si>
+  <si>
+    <t>spare_parts_category</t>
+  </si>
+  <si>
+    <t>electrical_and_control_system</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>refrigeration_system</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>Electrical and Control System</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Sistema electrico y de control</t>
+  </si>
+  <si>
+    <t>Vigilancia</t>
+  </si>
+  <si>
+    <t>Poder</t>
+  </si>
+  <si>
+    <t>Refrigeration System</t>
+  </si>
+  <si>
+    <t>Sistema de refrigeración</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>compressor_electronic_unit</t>
+  </si>
+  <si>
+    <t>control_panel</t>
+  </si>
+  <si>
+    <t>display_battery</t>
+  </si>
+  <si>
+    <t>display_led</t>
+  </si>
+  <si>
+    <t>indicator_light</t>
+  </si>
+  <si>
+    <t>power_switch</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>starting_device</t>
+  </si>
+  <si>
+    <t>thermostat_controller</t>
+  </si>
+  <si>
+    <t>wiring</t>
+  </si>
+  <si>
+    <t>wiring_connections</t>
+  </si>
+  <si>
+    <t>wiring_terminals</t>
+  </si>
+  <si>
+    <t>baskets</t>
+  </si>
+  <si>
+    <t>door_hinges</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>door_hinge_cover</t>
+  </si>
+  <si>
+    <t>lock_and_key</t>
+  </si>
+  <si>
+    <t>removable_insulation</t>
+  </si>
+  <si>
+    <t>ventillation_grill</t>
+  </si>
+  <si>
+    <t>30_day_temperature_monitor</t>
+  </si>
+  <si>
+    <t>circuit_breaker</t>
+  </si>
+  <si>
+    <t>spike_arrester</t>
+  </si>
+  <si>
+    <t>power_adapter</t>
+  </si>
+  <si>
+    <t>power_lead</t>
+  </si>
+  <si>
+    <t>power_plug</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>voltage_stabilizer</t>
+  </si>
+  <si>
+    <t>burner_boiler</t>
+  </si>
+  <si>
+    <t>capillaries</t>
+  </si>
+  <si>
+    <t>circulation_fan</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>condensor_fan</t>
+  </si>
+  <si>
+    <t>cooling_fan</t>
+  </si>
+  <si>
+    <t>evaporator_plate</t>
+  </si>
+  <si>
+    <t>condensor_external</t>
+  </si>
+  <si>
+    <t>filter_dryer</t>
+  </si>
+  <si>
+    <t>flue</t>
+  </si>
+  <si>
+    <t>flue_baffle</t>
+  </si>
+  <si>
+    <t>ice_packs_ice_bank_ice_liner</t>
+  </si>
+  <si>
+    <t>condensor_internal</t>
+  </si>
+  <si>
+    <t>keypad_external</t>
+  </si>
+  <si>
+    <t>temperature_probe_external_display</t>
+  </si>
+  <si>
+    <t>lamp_absorption</t>
+  </si>
+  <si>
+    <t>piping_tubing</t>
+  </si>
+  <si>
+    <t>refrigerant</t>
+  </si>
+  <si>
+    <t>sealant</t>
+  </si>
+  <si>
+    <t>thermostat_probe</t>
+  </si>
+  <si>
+    <t>wicks</t>
+  </si>
+  <si>
+    <t>solar_related_parts</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Wiring</t>
+  </si>
+  <si>
+    <t>Baskets</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Capillaries</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>Flue</t>
+  </si>
+  <si>
+    <t>Refrigerant</t>
+  </si>
+  <si>
+    <t>Sealant</t>
+  </si>
+  <si>
+    <t>Wicks</t>
+  </si>
+  <si>
+    <t>Compressor Electronic Unit</t>
+  </si>
+  <si>
+    <t>Door Hinge Cover</t>
+  </si>
+  <si>
+    <t>Lock And Key</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>Display Battery</t>
+  </si>
+  <si>
+    <t>Indicator Light</t>
+  </si>
+  <si>
+    <t>Power Switch</t>
+  </si>
+  <si>
+    <t>Starting Device</t>
+  </si>
+  <si>
+    <t>Thermostat Controller</t>
+  </si>
+  <si>
+    <t>Wiring Connections</t>
+  </si>
+  <si>
+    <t>Wiring Terminals</t>
+  </si>
+  <si>
+    <t>Door Hinges</t>
+  </si>
+  <si>
+    <t>Removable Insulation</t>
+  </si>
+  <si>
+    <t>Ventillation Grill</t>
+  </si>
+  <si>
+    <t>30 Day Temperature Monitor</t>
+  </si>
+  <si>
+    <t>Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Spike Arrester</t>
+  </si>
+  <si>
+    <t>Power Adapter</t>
+  </si>
+  <si>
+    <t>Power Lead</t>
+  </si>
+  <si>
+    <t>Power Plug</t>
+  </si>
+  <si>
+    <t>Voltage Stabilizer</t>
+  </si>
+  <si>
+    <t>Circulation Fan</t>
+  </si>
+  <si>
+    <t>Condensor Fan</t>
+  </si>
+  <si>
+    <t>Cooling Fan</t>
+  </si>
+  <si>
+    <t>Evaporator Plate</t>
+  </si>
+  <si>
+    <t>Condensor External</t>
+  </si>
+  <si>
+    <t>Temperature Probe External Display</t>
+  </si>
+  <si>
+    <t>Filter Dryer</t>
+  </si>
+  <si>
+    <t>Flue Baffle</t>
+  </si>
+  <si>
+    <t>Condensor Internal</t>
+  </si>
+  <si>
+    <t>Thermostat Probe</t>
+  </si>
+  <si>
+    <t>Keypad External</t>
+  </si>
+  <si>
+    <t>Unidad electrónica de compresor</t>
+  </si>
+  <si>
+    <t>Panel de control</t>
+  </si>
+  <si>
+    <t>Pantalla de la batería</t>
+  </si>
+  <si>
+    <t>Teclado Externo</t>
+  </si>
+  <si>
+    <t>Display LED</t>
+  </si>
+  <si>
+    <t>Pantalla LED</t>
+  </si>
+  <si>
+    <t>Fusible</t>
+  </si>
+  <si>
+    <t>Luz indicadora</t>
+  </si>
+  <si>
+    <t>Interruptor de alimentación</t>
+  </si>
+  <si>
+    <t>Dispositivo de inicio</t>
+  </si>
+  <si>
+    <t>Controlador de termostato</t>
+  </si>
+  <si>
+    <t>Alambrado</t>
+  </si>
+  <si>
+    <t>Conexiones de cableado</t>
+  </si>
+  <si>
+    <t>Terminales de cableado</t>
+  </si>
+  <si>
+    <t>Cestas</t>
+  </si>
+  <si>
+    <t>Junta de la puerta</t>
+  </si>
+  <si>
+    <t>Bisagras de puerta</t>
+  </si>
+  <si>
+    <t>Manija</t>
+  </si>
+  <si>
+    <t>Cubierta de la bisagra de la puerta</t>
+  </si>
+  <si>
+    <t>Cerradura y llave</t>
+  </si>
+  <si>
+    <t>Aislamiento removible</t>
+  </si>
+  <si>
+    <t>Rejilla de ventilación</t>
+  </si>
+  <si>
+    <t>Monitor de temperatura de 30 días</t>
+  </si>
+  <si>
+    <t>Cortacircuitos</t>
+  </si>
+  <si>
+    <t>Descargador de picos</t>
+  </si>
+  <si>
+    <t>Adaptador de corriente</t>
+  </si>
+  <si>
+    <t>Cable de alimentación</t>
+  </si>
+  <si>
+    <t>Enchufe</t>
+  </si>
+  <si>
+    <t>Transformador</t>
+  </si>
+  <si>
+    <t>Estabilizador de voltaje</t>
+  </si>
+  <si>
+    <t>Capilares</t>
+  </si>
+  <si>
+    <t>Ventilador de circulación</t>
+  </si>
+  <si>
+    <t>Compresor</t>
+  </si>
+  <si>
+    <t>Abanico condensador</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>Placa del evaporador</t>
+  </si>
+  <si>
+    <t>Condensador externo</t>
+  </si>
+  <si>
+    <t>Sonda de temperatura Pantalla externa</t>
+  </si>
+  <si>
+    <t>Filtro secador</t>
+  </si>
+  <si>
+    <t>Tubo</t>
+  </si>
+  <si>
+    <t>Deflector de humos</t>
+  </si>
+  <si>
+    <t>Ice Packs/Ice Bank/Ice Liner</t>
+  </si>
+  <si>
+    <t>Condensador interno</t>
+  </si>
+  <si>
+    <t>Lamp/Absorption</t>
+  </si>
+  <si>
+    <t>Piping/Tubing</t>
+  </si>
+  <si>
+    <t>Lámpara / Absorción</t>
+  </si>
+  <si>
+    <t>Tuberías / Tubos</t>
+  </si>
+  <si>
+    <t>Refrigerante</t>
+  </si>
+  <si>
+    <t>Sellador</t>
+  </si>
+  <si>
+    <t>Sonda de termostato</t>
+  </si>
+  <si>
+    <t>Mechas</t>
+  </si>
+  <si>
+    <t>Burner/Boiler</t>
+  </si>
+  <si>
+    <t>Quemador/Caldera</t>
+  </si>
+  <si>
+    <t>spare_parts_category_types</t>
+  </si>
+  <si>
+    <t>Spare Part Category</t>
+  </si>
+  <si>
+    <t>Categoría de repuestos</t>
+  </si>
+  <si>
+    <t>Select spare part category</t>
+  </si>
+  <si>
+    <t>Seleccione la categoría de repuestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>spare_parts_types_electrical</t>
+  </si>
+  <si>
+    <t>spare_parts_types_hardware</t>
+  </si>
+  <si>
+    <t>spare_parts_types_monitoring</t>
+  </si>
+  <si>
+    <t>spare_parts_types_power</t>
+  </si>
+  <si>
+    <t>spare_parts_types_solar</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'electrical_and_control_system')</t>
+  </si>
+  <si>
+    <t>spare_parts_electrical</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'hardware')</t>
+  </si>
+  <si>
+    <t>spare_parts_hardware</t>
+  </si>
+  <si>
+    <t>spare_parts_monitoring</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'power')</t>
+  </si>
+  <si>
+    <t>spare_parts_power</t>
+  </si>
+  <si>
+    <t>spare_parts_types_refrigeration</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'monitoring')</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'refrigeration_system')</t>
+  </si>
+  <si>
+    <t>spare_parts_refrigeration</t>
+  </si>
+  <si>
+    <t>selected(data('spare_parts_category'), 'solar')</t>
+  </si>
+  <si>
+    <t>spare_parts_solar</t>
+  </si>
+  <si>
+    <t>Solar Related Parts (Battery, Grounding, Etc)</t>
+  </si>
+  <si>
+    <t>Paquetes / banco / revestimiento de hielo</t>
+  </si>
+  <si>
+    <t>Partes relacionadas con la energía solar (batería, etc.)</t>
   </si>
 </sst>
 </file>
@@ -1273,27 +1849,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.58203125" customWidth="1"/>
     <col min="9" max="9" width="39.5" customWidth="1"/>
-    <col min="10" max="1025" width="8.5" customWidth="1"/>
+    <col min="10" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1914,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1929,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1379,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1391,32 +1967,32 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -1424,22 +2000,22 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1452,30 +2028,30 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +2064,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1503,34 +2079,34 @@
         <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
         <v>144</v>
       </c>
-      <c r="I11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +2126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
@@ -1567,151 +2143,391 @@
         <v>88</v>
       </c>
       <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
         <v>149</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
         <v>153</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>154</v>
       </c>
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="E23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" t="s">
+        <v>373</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E28" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" t="s">
+        <v>391</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>392</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
         <v>100</v>
       </c>
-      <c r="F23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1728,22 +2544,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.9140625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="5" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,7 +2573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1771,7 +2587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1785,7 +2601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1799,269 +2615,1095 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>377</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>183</v>
+      <c r="D54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>377</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>377</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>379</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>379</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>379</v>
+      </c>
+      <c r="B68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>388</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>306</v>
+      </c>
+      <c r="D74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>388</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>388</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
+        <v>281</v>
+      </c>
+      <c r="D82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>388</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>388</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>360</v>
+      </c>
+      <c r="D86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" t="s">
+        <v>361</v>
+      </c>
+      <c r="D87" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>388</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>394</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2078,20 +3720,20 @@
       <selection activeCell="A3" activeCellId="1" sqref="B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="47.125" customWidth="1"/>
-    <col min="8" max="8" width="38.875" customWidth="1"/>
+    <col min="7" max="7" width="47.08203125" customWidth="1"/>
+    <col min="8" max="8" width="38.83203125" customWidth="1"/>
     <col min="9" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -2117,7 +3759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2162,17 +3804,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" customWidth="1"/>
     <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2192,7 +3834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +3842,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2208,7 +3850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2219,7 +3861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -2227,7 +3869,7 @@
         <v>20170804</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2235,7 +3877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2246,7 +3888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2276,16 +3918,16 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2302,7 +3944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
@@ -2319,7 +3961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -2336,7 +3978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>65</v>
       </c>
@@ -2353,7 +3995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -2370,7 +4012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -2387,7 +4029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -2404,7 +4046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>80</v>
       </c>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="398">
   <si>
     <t>clause</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>Partes relacionadas con la energía solar (batería, etc.)</t>
+  </si>
+  <si>
+    <t>birthdate</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -2546,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -19,19 +19,11 @@
     <sheet name="properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="439">
   <si>
     <t>clause</t>
   </si>
@@ -1227,6 +1219,129 @@
   </si>
   <si>
     <t>birthdate</t>
+  </si>
+  <si>
+    <t>display.title.text.fr</t>
+  </si>
+  <si>
+    <t>display.prompt.text.fr</t>
+  </si>
+  <si>
+    <t>Réparation</t>
+  </si>
+  <si>
+    <t>Maintenance préventive</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Garantie/prestataire de services</t>
+  </si>
+  <si>
+    <t>Technicien CCE</t>
+  </si>
+  <si>
+    <t>Personnel de l'établissement</t>
+  </si>
+  <si>
+    <t>Réservoir de fluide frigorigène</t>
+  </si>
+  <si>
+    <t>Ventilateur de condenseur</t>
+  </si>
+  <si>
+    <t>Joint d'étanchéité de porte</t>
+  </si>
+  <si>
+    <t>Compresseur électrique</t>
+  </si>
+  <si>
+    <t>Enregistreur de température pour réfrigérateur</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Extracteur d'air rotatif</t>
+  </si>
+  <si>
+    <t>Compresseur à énergie solaire</t>
+  </si>
+  <si>
+    <t>Séchoir pour réfrigérateur</t>
+  </si>
+  <si>
+    <t>Unité de commande électronique</t>
+  </si>
+  <si>
+    <t>Charnières</t>
+  </si>
+  <si>
+    <t>Données nécessaires</t>
+  </si>
+  <si>
+    <t>Panneaux solaires propres</t>
+  </si>
+  <si>
+    <t>Serpentins propres</t>
+  </si>
+  <si>
+    <t>Entrer l'ID du réfrigérateur</t>
+  </si>
+  <si>
+    <t>Qui a effectué la maintenance ?</t>
+  </si>
+  <si>
+    <t>Entrer le nom du technicien</t>
+  </si>
+  <si>
+    <t>Prendre une photo</t>
+  </si>
+  <si>
+    <t>Entrer la date de la dernière maintenance</t>
+  </si>
+  <si>
+    <t>Entrer la date de la prochaine maintenance</t>
+  </si>
+  <si>
+    <t>Entrer éventuellement des notes supplémentaires</t>
+  </si>
+  <si>
+    <t>Sélectionner le type de maintenance</t>
+  </si>
+  <si>
+    <t>Sélectionner le type de réparation</t>
+  </si>
+  <si>
+    <t>Sélectionner des pièces détachées</t>
+  </si>
+  <si>
+    <t>Faire une liste des pièces détachées</t>
+  </si>
+  <si>
+    <t>Registres de maintenance</t>
+  </si>
+  <si>
+    <t>display.locale.text.fr</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>fr</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1487,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1406,6 +1521,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1852,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1866,13 +2005,13 @@
     <col min="4" max="4" width="26.08203125" customWidth="1"/>
     <col min="5" max="5" width="20.58203125" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.58203125" customWidth="1"/>
-    <col min="9" max="9" width="39.5" customWidth="1"/>
-    <col min="10" max="1024" width="8.5" customWidth="1"/>
+    <col min="7" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="11" width="39.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,16 +2034,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1916,8 +2061,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="1"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1931,8 +2078,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1948,17 +2097,20 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1969,8 +2121,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" s="1"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -1988,14 +2142,18 @@
       <c r="G6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -2011,14 +2169,18 @@
       <c r="G7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2030,8 +2192,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -2047,14 +2211,18 @@
       <c r="G9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2066,8 +2234,10 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="1"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>397</v>
       </c>
@@ -2081,14 +2251,18 @@
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2102,14 +2276,18 @@
       <c r="G12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -2122,14 +2300,17 @@
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
@@ -2145,14 +2326,17 @@
       <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2160,9 +2344,10 @@
         <v>189</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="9"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>148</v>
       </c>
@@ -2178,21 +2363,25 @@
       <c r="G16" t="s">
         <v>192</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="9"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2200,9 +2389,10 @@
         <v>203</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="9"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
         <v>148</v>
       </c>
@@ -2218,35 +2408,41 @@
       <c r="G19" t="s">
         <v>193</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="9"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="9"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="9"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>375</v>
       </c>
@@ -2262,14 +2458,17 @@
       <c r="G23" t="s">
         <v>372</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>373</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K23" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2277,9 +2476,9 @@
         <v>381</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
@@ -2295,21 +2494,23 @@
       <c r="G25" t="s">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2317,9 +2518,10 @@
         <v>383</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
@@ -2335,21 +2537,23 @@
       <c r="G28" t="s">
         <v>108</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2357,9 +2561,10 @@
         <v>389</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
@@ -2375,21 +2580,23 @@
       <c r="G31" t="s">
         <v>108</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2397,9 +2604,10 @@
         <v>386</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
         <v>139</v>
       </c>
@@ -2415,21 +2623,23 @@
       <c r="G34" t="s">
         <v>108</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -2437,9 +2647,10 @@
         <v>390</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
@@ -2455,21 +2666,23 @@
       <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>109</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2477,9 +2690,10 @@
         <v>392</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="C40" s="1" t="s">
         <v>139</v>
       </c>
@@ -2495,21 +2709,23 @@
       <c r="G40" t="s">
         <v>108</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2522,14 +2738,17 @@
       <c r="G42" t="s">
         <v>107</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>101</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K42" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2537,20 +2756,15 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2559,10 +2773,11 @@
     <col min="2" max="2" width="27.9140625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="1024" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="25.4140625" customWidth="1"/>
+    <col min="6" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2575,8 +2790,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2589,8 +2807,11 @@
       <c r="D2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2603,8 +2824,11 @@
       <c r="D3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -2617,8 +2841,11 @@
       <c r="D4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -2631,8 +2858,11 @@
       <c r="D6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -2645,8 +2875,11 @@
       <c r="D7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2659,8 +2892,11 @@
       <c r="D8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2673,8 +2909,11 @@
       <c r="D10" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2687,8 +2926,11 @@
       <c r="D11" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2701,8 +2943,11 @@
       <c r="D12" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2715,8 +2960,11 @@
       <c r="D13" s="13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2729,8 +2977,11 @@
       <c r="D14" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2743,8 +2994,11 @@
       <c r="D15" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2757,8 +3011,11 @@
       <c r="D16" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -2771,8 +3028,11 @@
       <c r="D17" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -2785,8 +3045,11 @@
       <c r="D18" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2799,8 +3062,11 @@
       <c r="D19" s="16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2813,8 +3079,11 @@
       <c r="D20" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2827,8 +3096,11 @@
       <c r="D21" s="16" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2841,8 +3113,11 @@
       <c r="D23" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -2852,8 +3127,11 @@
       <c r="C25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2863,8 +3141,11 @@
       <c r="C26" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -2877,8 +3158,11 @@
       <c r="D27" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>370</v>
       </c>
@@ -2892,7 +3176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>370</v>
       </c>
@@ -2906,7 +3190,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>370</v>
       </c>
@@ -2920,7 +3204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -3707,11 +3991,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3801,11 +4080,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3813,11 +4090,14 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="29.08203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="1026" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3830,30 +4110,40 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" s="24"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="24"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3863,53 +4153,79 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="6">
         <v>20170804</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="24"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="24"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>61</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="queries" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
-    <sheet name="properties" sheetId="5" r:id="rId5"/>
+    <sheet name="initial" sheetId="6" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="queries" sheetId="3" r:id="rId4"/>
+    <sheet name="settings" sheetId="4" r:id="rId5"/>
+    <sheet name="properties" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="444">
   <si>
     <t>clause</t>
   </si>
@@ -1342,6 +1343,21 @@
   </si>
   <si>
     <t>fr</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -1991,9 +2007,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="29"/>
+    <col min="3" max="3" width="18" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
@@ -3994,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -4078,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -4229,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="11060" yWindow="2690" windowWidth="28370" windowHeight="19560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="settings" sheetId="4" r:id="rId5"/>
     <sheet name="properties" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="480">
   <si>
     <t>clause</t>
   </si>
@@ -83,15 +83,9 @@
     <t>end if</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>date_serviced</t>
   </si>
   <si>
-    <t>Date Serviced</t>
-  </si>
-  <si>
     <t>Fecha de Servicio</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Tipo de mantenimiento realizado</t>
   </si>
   <si>
-    <t>select_one</t>
-  </si>
-  <si>
     <t>maint_types</t>
   </si>
   <si>
@@ -326,38 +317,10 @@
     <t>Otro</t>
   </si>
   <si>
-    <t>Haga una lista de repuestos</t>
-  </si>
-  <si>
-    <t>Make a list of spare parts</t>
-  </si>
-  <si>
     <t>Select type of maintenance</t>
   </si>
   <si>
     <t>Seleccione el tipo de mantenimiento</t>
-  </si>
-  <si>
-    <t>addtl_spare_parts</t>
-  </si>
-  <si>
-    <t>Spare Parts</t>
-  </si>
-  <si>
-    <t>Enter additional spare parts</t>
-  </si>
-  <si>
-    <t>Entrar adicional piezas de repuesto</t>
-  </si>
-  <si>
-    <t>Piezas de Repuesto</t>
-  </si>
-  <si>
-    <t>Select spare parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Seleccione piezas de repuestos</t>
   </si>
   <si>
     <t>common_spare_parts</t>
@@ -445,9 +408,6 @@
     <t>Termostato</t>
   </si>
   <si>
-    <t>select_multiple_inline</t>
-  </si>
-  <si>
     <t>serviced_by</t>
   </si>
   <si>
@@ -457,21 +417,6 @@
     <t>technician_name</t>
   </si>
   <si>
-    <t>Enter the date of last service</t>
-  </si>
-  <si>
-    <t>Fecha  del último servicio</t>
-  </si>
-  <si>
-    <t>next_date_serviced</t>
-  </si>
-  <si>
-    <t>Next Date Serviced</t>
-  </si>
-  <si>
-    <t>Próxima Fecha de Servicio</t>
-  </si>
-  <si>
     <t>select_multiple</t>
   </si>
   <si>
@@ -556,27 +501,6 @@
     <t>Hinges</t>
   </si>
   <si>
-    <t>need_data</t>
-  </si>
-  <si>
-    <t>Need Data</t>
-  </si>
-  <si>
-    <t>clean_solar_panels</t>
-  </si>
-  <si>
-    <t>Clean solar panels</t>
-  </si>
-  <si>
-    <t>clean_coils</t>
-  </si>
-  <si>
-    <t>Clean coils</t>
-  </si>
-  <si>
-    <t>Necesita Datos</t>
-  </si>
-  <si>
     <t>Garantía / Proveedor de Servicios</t>
   </si>
   <si>
@@ -595,15 +519,6 @@
     <t>Bisagra</t>
   </si>
   <si>
-    <t>data('type_of_maintenance') === 'repair'</t>
-  </si>
-  <si>
-    <t>Ingrese la próxima fecha de servicio</t>
-  </si>
-  <si>
-    <t>Enter the next date serviced</t>
-  </si>
-  <si>
     <t>Tipo de Reparación</t>
   </si>
   <si>
@@ -616,9 +531,6 @@
     <t>Seleccione tipo de reparación</t>
   </si>
   <si>
-    <t>Seleccione tipo de mantenimiento</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -631,18 +543,9 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>Take a picture</t>
-  </si>
-  <si>
     <t>Toma una foto</t>
   </si>
   <si>
-    <t>data('type_of_maintenance') === 'preventative'</t>
-  </si>
-  <si>
-    <t>spare_parts_category</t>
-  </si>
-  <si>
     <t>electrical_and_control_system</t>
   </si>
   <si>
@@ -1141,18 +1044,6 @@
     <t>spare_parts_category_types</t>
   </si>
   <si>
-    <t>Spare Part Category</t>
-  </si>
-  <si>
-    <t>Categoría de repuestos</t>
-  </si>
-  <si>
-    <t>Select spare part category</t>
-  </si>
-  <si>
-    <t>Seleccione la categoría de repuestos</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_multiple </t>
   </si>
   <si>
@@ -1171,42 +1062,24 @@
     <t>spare_parts_types_solar</t>
   </si>
   <si>
-    <t>selected(data('spare_parts_category'), 'electrical_and_control_system')</t>
-  </si>
-  <si>
     <t>spare_parts_electrical</t>
   </si>
   <si>
-    <t>selected(data('spare_parts_category'), 'hardware')</t>
-  </si>
-  <si>
     <t>spare_parts_hardware</t>
   </si>
   <si>
     <t>spare_parts_monitoring</t>
   </si>
   <si>
-    <t>selected(data('spare_parts_category'), 'power')</t>
-  </si>
-  <si>
     <t>spare_parts_power</t>
   </si>
   <si>
     <t>spare_parts_types_refrigeration</t>
   </si>
   <si>
-    <t>selected(data('spare_parts_category'), 'monitoring')</t>
-  </si>
-  <si>
-    <t>selected(data('spare_parts_category'), 'refrigeration_system')</t>
-  </si>
-  <si>
     <t>spare_parts_refrigeration</t>
   </si>
   <si>
-    <t>selected(data('spare_parts_category'), 'solar')</t>
-  </si>
-  <si>
     <t>spare_parts_solar</t>
   </si>
   <si>
@@ -1279,15 +1152,6 @@
     <t>Charnières</t>
   </si>
   <si>
-    <t>Données nécessaires</t>
-  </si>
-  <si>
-    <t>Panneaux solaires propres</t>
-  </si>
-  <si>
-    <t>Serpentins propres</t>
-  </si>
-  <si>
     <t>Entrer l'ID du réfrigérateur</t>
   </si>
   <si>
@@ -1300,12 +1164,6 @@
     <t>Prendre une photo</t>
   </si>
   <si>
-    <t>Entrer la date de la dernière maintenance</t>
-  </si>
-  <si>
-    <t>Entrer la date de la prochaine maintenance</t>
-  </si>
-  <si>
     <t>Entrer éventuellement des notes supplémentaires</t>
   </si>
   <si>
@@ -1315,12 +1173,6 @@
     <t>Sélectionner le type de réparation</t>
   </si>
   <si>
-    <t>Sélectionner des pièces détachées</t>
-  </si>
-  <si>
-    <t>Faire une liste des pièces détachées</t>
-  </si>
-  <si>
     <t>Registres de maintenance</t>
   </si>
   <si>
@@ -1358,19 +1210,288 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>Date of Service</t>
+  </si>
+  <si>
+    <t>Enter the date of service</t>
+  </si>
+  <si>
+    <t>Fecha  del servicio</t>
+  </si>
+  <si>
+    <t>Entrer la date de la maintenance</t>
+  </si>
+  <si>
+    <t>technician_phone</t>
+  </si>
+  <si>
+    <t>Technician Phone Number</t>
+  </si>
+  <si>
+    <t>Take a picture of the area of repair</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Cleaning - cabinet</t>
+  </si>
+  <si>
+    <t>Cleaning - solar panels</t>
+  </si>
+  <si>
+    <t>Defrosting</t>
+  </si>
+  <si>
+    <t>Tightening</t>
+  </si>
+  <si>
+    <t>Check seals</t>
+  </si>
+  <si>
+    <t>Check/clean cooling unit</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Número de teléfono del técnico</t>
+  </si>
+  <si>
+    <t>Enter technician phone number if available</t>
+  </si>
+  <si>
+    <t>Ingrese el número de teléfono del técnico si está disponible</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Temperature Monitoring</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>temperature_monitoring</t>
+  </si>
+  <si>
+    <t>Cleaning/drying - storage compartment</t>
+  </si>
+  <si>
+    <t>cleaning_cabinet</t>
+  </si>
+  <si>
+    <t>check_seals</t>
+  </si>
+  <si>
+    <t>check_unit</t>
+  </si>
+  <si>
+    <t>cleaning_drying_storage_compartment</t>
+  </si>
+  <si>
+    <t>cleaning_solar_panels</t>
+  </si>
+  <si>
+    <t>defrosting</t>
+  </si>
+  <si>
+    <t>tightening</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Monitoreo de temperatura</t>
+  </si>
+  <si>
+    <t>Limpieza - gabinete</t>
+  </si>
+  <si>
+    <t>Limpieza/secado - compartimento de almacenamiento</t>
+  </si>
+  <si>
+    <t>Limpieza - paneles solares</t>
+  </si>
+  <si>
+    <t>Antihielo</t>
+  </si>
+  <si>
+    <t>Apriete</t>
+  </si>
+  <si>
+    <t>Revise los sellos</t>
+  </si>
+  <si>
+    <t>Comprobar/limpiar la unidad de enfriamiento</t>
+  </si>
+  <si>
+    <t>Please update refrigerator status as needed</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_repair'), 'other')</t>
+  </si>
+  <si>
+    <t>repair_activities</t>
+  </si>
+  <si>
+    <t>Repair Activities</t>
+  </si>
+  <si>
+    <t>Enter actions taken</t>
+  </si>
+  <si>
+    <t>Ingrese las acciones tomadas</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_maintenance'), 'other')</t>
+  </si>
+  <si>
+    <t>other_repair</t>
+  </si>
+  <si>
+    <t>Other Repair</t>
+  </si>
+  <si>
+    <t>Otra Reparación</t>
+  </si>
+  <si>
+    <t>Actividades de Reparacion</t>
+  </si>
+  <si>
+    <t>Enter other repair</t>
+  </si>
+  <si>
+    <t>Ingrese otra reparación</t>
+  </si>
+  <si>
+    <t>other_maintenance</t>
+  </si>
+  <si>
+    <t>Other Maintenance</t>
+  </si>
+  <si>
+    <t>Otro mantenimiento</t>
+  </si>
+  <si>
+    <t>Ingrese otro mantenimiento</t>
+  </si>
+  <si>
+    <t>Enter other maintenance</t>
+  </si>
+  <si>
+    <t>other_spare_parts</t>
+  </si>
+  <si>
+    <t>Actualice el estado del refrigerador según sea necesario</t>
+  </si>
+  <si>
+    <t>Enter comments</t>
+  </si>
+  <si>
+    <t>Ingrese comentarios</t>
+  </si>
+  <si>
+    <t>Select Electrical and Control System spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select Hardware spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select Monitoring spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select Power spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select Refrigeration System spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select Solar spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Other spare parts replaced/used</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas de repuesto del sistema eléctrico y de control reemplazadas/usadas</t>
+  </si>
+  <si>
+    <t>Seleccione Monitoreo de repuestos reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccionar repuestos de potencia reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccione piezas de repuesto de hardware reemplazadas/usadas</t>
+  </si>
+  <si>
+    <t>Seleccione los repuestos del sistema de refrigeración reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccionar repuestos solares reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Otras piezas de repuesto reemplazadas/usadas</t>
+  </si>
+  <si>
+    <t>Update Refrigerator Status</t>
+  </si>
+  <si>
+    <t>Actualizar estado del refrigerador</t>
+  </si>
+  <si>
+    <t>preventative_comments</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_maintenance'),  'repair')</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_maintenance'), 'preventative')</t>
+  </si>
+  <si>
+    <t>Select type of preventative maintenance</t>
+  </si>
+  <si>
+    <t>Seleccione tipo de mantenimiento preventivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1438,7 +1559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,6 +1572,12 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1461,54 +1588,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1518,7 +1646,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,17 +1654,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1549,9 +1677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1561,8 +1686,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="41">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1603,6 +1742,7 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="40"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2009,17 +2149,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="29"/>
-    <col min="3" max="3" width="18" style="29" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="29"/>
+    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="28"/>
+    <col min="3" max="3" width="18" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2030,27 +2170,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2061,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2077,7 +2217,8 @@
     <col min="6" max="6" width="32.83203125" customWidth="1"/>
     <col min="7" max="8" width="32.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="11" width="39.5" customWidth="1"/>
+    <col min="10" max="10" width="73" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2104,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -2113,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -2174,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2198,29 +2339,29 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2231,130 +2372,130 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>425</v>
+      <c r="K12" s="32" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
@@ -2362,101 +2503,96 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
       <c r="K13" s="22" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>189</v>
+      <c r="B15" s="28" t="s">
+        <v>443</v>
       </c>
       <c r="C15" s="1"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" t="s">
-        <v>194</v>
+        <v>402</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>454</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
       <c r="C18" s="1"/>
       <c r="J18" s="9"/>
@@ -2464,363 +2600,362 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>438</v>
       </c>
       <c r="C20" s="1"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C23" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D23" t="s">
-        <v>370</v>
-      </c>
-      <c r="E23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" t="s">
-        <v>371</v>
-      </c>
-      <c r="G23" t="s">
-        <v>372</v>
-      </c>
-      <c r="I23" t="s">
-        <v>373</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>429</v>
-      </c>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" t="s">
-        <v>376</v>
-      </c>
-      <c r="E25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>377</v>
-      </c>
-      <c r="E28" t="s">
-        <v>384</v>
-      </c>
-      <c r="F28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="9"/>
+      <c r="C28" s="1"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>389</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" t="s">
-        <v>378</v>
-      </c>
-      <c r="E31" t="s">
-        <v>385</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E34" t="s">
-        <v>387</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>390</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" t="s">
-        <v>388</v>
-      </c>
-      <c r="E37" t="s">
-        <v>391</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C35" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="C40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" t="s">
-        <v>380</v>
-      </c>
-      <c r="E40" t="s">
-        <v>393</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2831,28 +2966,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="25.4140625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="1024" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2861,1201 +2996,1363 @@
         <v>6</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
       <c r="E3" s="17" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="E12" s="17" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E15" s="17" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C26" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="C27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>370</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" t="s">
-        <v>217</v>
-      </c>
+      <c r="C28" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="15"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>370</v>
-      </c>
-      <c r="B32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" t="s">
-        <v>214</v>
+        <v>134</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>404</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>370</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>376</v>
-      </c>
-      <c r="B36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>376</v>
-      </c>
-      <c r="B37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>376</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>376</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>376</v>
-      </c>
-      <c r="B40" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" t="s">
-        <v>321</v>
-      </c>
-      <c r="D40" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="9"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="9"/>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>376</v>
-      </c>
-      <c r="B47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D56" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>338</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>379</v>
-      </c>
-      <c r="B64" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>340</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
         <v>244</v>
       </c>
-      <c r="C65" t="s">
-        <v>301</v>
-      </c>
       <c r="D65" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" t="s">
         <v>305</v>
-      </c>
-      <c r="D70" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="D72" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>388</v>
-      </c>
-      <c r="B73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>388</v>
-      </c>
-      <c r="B75" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D79" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D81" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>388</v>
-      </c>
-      <c r="B83" t="s">
-        <v>260</v>
-      </c>
-      <c r="C83" t="s">
-        <v>313</v>
-      </c>
-      <c r="D83" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D84" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>367</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>349</v>
+      </c>
+      <c r="B92" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>394</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>396</v>
+        <v>280</v>
+      </c>
+      <c r="D93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>349</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>349</v>
+      </c>
+      <c r="B99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" t="s">
+        <v>251</v>
+      </c>
+      <c r="D101" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>344</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4087,54 +4384,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4169,10 +4466,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4180,117 +4477,117 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>398</v>
+      <c r="E1" s="24" t="s">
+        <v>356</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>432</v>
+        <v>46</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="H2" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="H3" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="H4" s="27"/>
+      <c r="E4" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6">
         <v>20170804</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="23"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="H6" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>433</v>
+      <c r="H7" s="27" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>434</v>
+      <c r="H8" s="27" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>435</v>
+        <v>389</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4318,138 +4615,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="482">
   <si>
     <t>clause</t>
   </si>
@@ -1404,45 +1404,6 @@
     <t>Ingrese comentarios</t>
   </si>
   <si>
-    <t>Select Electrical and Control System spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Select Hardware spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Select Monitoring spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Select Power spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Select Refrigeration System spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Select Solar spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Other spare parts replaced/used</t>
-  </si>
-  <si>
-    <t>Seleccione las piezas de repuesto del sistema eléctrico y de control reemplazadas/usadas</t>
-  </si>
-  <si>
-    <t>Seleccione Monitoreo de repuestos reemplazados/usados</t>
-  </si>
-  <si>
-    <t>Seleccionar repuestos de potencia reemplazados/usados</t>
-  </si>
-  <si>
-    <t>Seleccione piezas de repuesto de hardware reemplazadas/usadas</t>
-  </si>
-  <si>
-    <t>Seleccione los repuestos del sistema de refrigeración reemplazados/usados</t>
-  </si>
-  <si>
-    <t>Seleccionar repuestos solares reemplazados/usados</t>
-  </si>
-  <si>
     <t>Otras piezas de repuesto reemplazadas/usadas</t>
   </si>
   <si>
@@ -1455,9 +1416,6 @@
     <t>preventative_comments</t>
   </si>
   <si>
-    <t>selected(data('type_of_maintenance'),  'repair')</t>
-  </si>
-  <si>
     <t>selected(data('type_of_maintenance'), 'preventative')</t>
   </si>
   <si>
@@ -1465,6 +1423,54 @@
   </si>
   <si>
     <t>Seleccione tipo de mantenimiento preventivo</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Electrical and Control System&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Hardware&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Monitoring&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Power&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Refrigeration System&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Select &lt;strong&gt;Solar&lt;/strong&gt; parts replaced/used</t>
+  </si>
+  <si>
+    <t>Other parts replaced/used</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas del &lt;strong&gt;sistema eléctrico y de control&lt;/strong&gt; reemplazadas/usadas</t>
+  </si>
+  <si>
+    <t>Seleccione piezas de &lt;strong&gt;hardware&lt;/strong&gt; reemplazadas/usadas</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas de &lt;strong&gt;Monitoreo&lt;/strong&gt; reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas del &lt;strong&gt;sistema de refrigeración&lt;/strong&gt; reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas de &lt;strong&gt;potencia&lt;/strong&gt; reemplazados/usados</t>
+  </si>
+  <si>
+    <t>Seleccione las piezas de &lt;strong&gt;solares&lt;/strong&gt; reemplazados/usados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selected(data('type_of_maintenance'),  'repair')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other') </t>
   </si>
 </sst>
 </file>
@@ -2201,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2213,7 +2219,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="26.08203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" customWidth="1"/>
     <col min="7" max="8" width="32.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.58203125" customWidth="1"/>
@@ -2431,120 +2437,120 @@
       <c r="J9" s="1"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F14" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J14" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K14" s="32" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2592,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C18" s="1"/>
       <c r="J18" s="9"/>
@@ -2698,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C25" s="1"/>
       <c r="J25" s="9"/>
@@ -2721,10 +2727,10 @@
         <v>165</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>380</v>
@@ -2735,7 +2741,7 @@
         <v>402</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>403</v>
@@ -2764,82 +2770,68 @@
       <c r="J29" s="9"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>10</v>
+    <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>481</v>
       </c>
       <c r="C30" s="1"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="K32" s="34"/>
+        <v>473</v>
+      </c>
     </row>
     <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K33" s="34"/>
     </row>
@@ -2848,114 +2840,143 @@
         <v>339</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K34" s="34"/>
     </row>
-    <row r="35" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K35" s="34"/>
     </row>
-    <row r="36" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F38" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G38" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="J37" s="30" t="s">
+      <c r="I38" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="J38" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="32" t="s">
+    <row r="40" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="I39" s="30" t="s">
+      <c r="F40" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="I40" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J40" s="30" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="483">
   <si>
     <t>clause</t>
   </si>
@@ -1230,9 +1230,6 @@
     <t>Technician Phone Number</t>
   </si>
   <si>
-    <t>Take a picture of the area of repair</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -1470,7 +1467,13 @@
     <t xml:space="preserve"> selected(data('type_of_maintenance'),  'repair')</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other') </t>
+    <t>Take a picture of the area</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other')  || selected(data('type_of_maintenance'), 'preventative')</t>
+  </si>
+  <si>
+    <t>selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other')</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1640,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1705,6 +1708,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -2207,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2411,14 +2417,14 @@
         <v>400</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>412</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>413</v>
       </c>
       <c r="K8" s="32"/>
     </row>
@@ -2526,384 +2532,361 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+    <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="E15" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>18</v>
+      <c r="B17" t="s">
+        <v>479</v>
       </c>
       <c r="C17" s="1"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>480</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="B19" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="F22" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
+      <c r="I22" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="K23" s="32"/>
+      <c r="C23" s="1"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>462</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="9"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="26" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="I27" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="J27" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="K27" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="J28" s="9"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
+    <row r="29" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>481</v>
       </c>
       <c r="C29" s="1"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
+    </row>
+    <row r="30" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B32" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="K34" s="34"/>
+        <v>472</v>
+      </c>
     </row>
     <row r="35" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K35" s="34"/>
     </row>
-    <row r="36" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K36" s="34"/>
     </row>
@@ -2912,71 +2895,119 @@
         <v>339</v>
       </c>
       <c r="D37" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C38" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F39" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G39" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
+      <c r="I39" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C40" s="32" t="s">
-        <v>410</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>454</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>456</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3346,13 +3377,13 @@
         <v>131</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E24" s="29"/>
     </row>
@@ -3379,10 +3410,10 @@
         <v>176</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E26" s="29"/>
     </row>
@@ -3406,13 +3437,13 @@
         <v>131</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28" s="29"/>
     </row>
@@ -3441,13 +3472,13 @@
         <v>134</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32" s="17"/>
     </row>
@@ -3456,13 +3487,13 @@
         <v>134</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33" s="17"/>
     </row>
@@ -3471,13 +3502,13 @@
         <v>134</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E34" s="17"/>
     </row>
@@ -3486,13 +3517,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E35" s="29"/>
     </row>
@@ -3501,13 +3532,13 @@
         <v>134</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" s="29"/>
     </row>
@@ -3516,13 +3547,13 @@
         <v>134</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E37" s="29"/>
     </row>
@@ -3531,13 +3562,13 @@
         <v>134</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E38" s="29"/>
     </row>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="475">
   <si>
     <t>clause</t>
   </si>
@@ -531,21 +531,6 @@
     <t>Seleccione tipo de reparación</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>maintenance_log_image</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Toma una foto</t>
-  </si>
-  <si>
     <t>electrical_and_control_system</t>
   </si>
   <si>
@@ -1161,9 +1146,6 @@
     <t>Entrer le nom du technicien</t>
   </si>
   <si>
-    <t>Prendre une photo</t>
-  </si>
-  <si>
     <t>Entrer éventuellement des notes supplémentaires</t>
   </si>
   <si>
@@ -1465,12 +1447,6 @@
   </si>
   <si>
     <t xml:space="preserve"> selected(data('type_of_maintenance'),  'repair')</t>
-  </si>
-  <si>
-    <t>Take a picture of the area</t>
-  </si>
-  <si>
-    <t>selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other')  || selected(data('type_of_maintenance'), 'preventative')</t>
   </si>
   <si>
     <t>selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other')</t>
@@ -1640,7 +1616,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1708,9 +1684,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -2182,27 +2155,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2257,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -2266,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -2327,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2373,7 +2346,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2400,7 +2373,7 @@
         <v>143</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
@@ -2411,20 +2384,20 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="32" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K8" s="32"/>
     </row>
@@ -2460,27 +2433,27 @@
     </row>
     <row r="11" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="31" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
@@ -2503,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -2529,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2537,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C14" s="1"/>
       <c r="J14" s="9"/>
@@ -2545,22 +2518,22 @@
     </row>
     <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K15" s="22"/>
     </row>
@@ -2577,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C17" s="1"/>
       <c r="J17" s="9"/>
@@ -2606,7 +2579,7 @@
         <v>167</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2614,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C19" s="1"/>
       <c r="J19" s="9"/>
@@ -2622,22 +2595,22 @@
     </row>
     <row r="20" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -2651,22 +2624,22 @@
     </row>
     <row r="22" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K22" s="32"/>
     </row>
@@ -2683,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="9"/>
@@ -2706,30 +2679,30 @@
         <v>165</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K26" s="34"/>
     </row>
@@ -2754,260 +2727,208 @@
         <v>11</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C29" s="1"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="32" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E34" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C35" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>346</v>
-      </c>
       <c r="F35" s="30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>342</v>
-      </c>
       <c r="E36" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>476</v>
+        <v>465</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>452</v>
       </c>
       <c r="K37" s="34"/>
     </row>
-    <row r="38" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C38" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="K38" s="34"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>183</v>
+        <v>454</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>478</v>
+        <v>430</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3048,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3065,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3082,7 +3003,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3099,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -3116,7 +3037,7 @@
         <v>158</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3133,7 +3054,7 @@
         <v>159</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3150,7 +3071,7 @@
         <v>160</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3167,7 +3088,7 @@
         <v>118</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3184,7 +3105,7 @@
         <v>119</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3201,7 +3122,7 @@
         <v>120</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -3218,7 +3139,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -3235,7 +3156,7 @@
         <v>122</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3252,7 +3173,7 @@
         <v>123</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3269,7 +3190,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3286,7 +3207,7 @@
         <v>125</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3320,7 +3241,7 @@
         <v>161</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -3337,7 +3258,7 @@
         <v>162</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3354,7 +3275,7 @@
         <v>163</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -3362,13 +3283,13 @@
         <v>131</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C23" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="E23" s="17"/>
     </row>
@@ -3377,13 +3298,13 @@
         <v>131</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E24" s="29"/>
     </row>
@@ -3392,13 +3313,13 @@
         <v>131</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E25" s="29"/>
     </row>
@@ -3407,13 +3328,13 @@
         <v>131</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E26" s="29"/>
     </row>
@@ -3422,13 +3343,13 @@
         <v>131</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="D27" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E27" s="29"/>
     </row>
@@ -3437,13 +3358,13 @@
         <v>131</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E28" s="29"/>
     </row>
@@ -3472,13 +3393,13 @@
         <v>134</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E32" s="17"/>
     </row>
@@ -3487,13 +3408,13 @@
         <v>134</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E33" s="17"/>
     </row>
@@ -3502,13 +3423,13 @@
         <v>134</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E34" s="17"/>
     </row>
@@ -3517,13 +3438,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E35" s="29"/>
     </row>
@@ -3532,13 +3453,13 @@
         <v>134</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E36" s="29"/>
     </row>
@@ -3547,13 +3468,13 @@
         <v>134</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E37" s="29"/>
     </row>
@@ -3562,13 +3483,13 @@
         <v>134</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E38" s="29"/>
     </row>
@@ -3582,217 +3503,217 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
         <v>179</v>
-      </c>
-      <c r="D41" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
         <v>178</v>
       </c>
-      <c r="C46" t="s">
-        <v>183</v>
-      </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s">
         <v>107</v>
@@ -3806,105 +3727,105 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
@@ -3913,498 +3834,498 @@
         <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D71" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D85" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D88" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D91" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D102" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4530,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
@@ -4539,7 +4460,7 @@
         <v>46</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4573,7 +4494,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H4" s="26"/>
     </row>
@@ -4609,7 +4530,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -4624,22 +4545,22 @@
         <v>59</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
+++ b/app/config/tables/maintenance_logs/forms/maintenance_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="476">
   <si>
     <t>clause</t>
   </si>
@@ -87,21 +87,6 @@
   </si>
   <si>
     <t>Fecha de Servicio</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Notas</t>
-  </si>
-  <si>
-    <t>Enter any extra notes</t>
-  </si>
-  <si>
-    <t>Notas extras</t>
   </si>
   <si>
     <t>end screen</t>
@@ -1215,9 +1200,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Cleaning - cabinet</t>
   </si>
   <si>
@@ -1323,12 +1305,6 @@
     <t>selected(data('type_of_repair'), 'other')</t>
   </si>
   <si>
-    <t>repair_activities</t>
-  </si>
-  <si>
-    <t>Repair Activities</t>
-  </si>
-  <si>
     <t>Enter actions taken</t>
   </si>
   <si>
@@ -1338,51 +1314,12 @@
     <t>selected(data('type_of_maintenance'), 'other')</t>
   </si>
   <si>
-    <t>other_repair</t>
-  </si>
-  <si>
-    <t>Other Repair</t>
-  </si>
-  <si>
-    <t>Otra Reparación</t>
-  </si>
-  <si>
-    <t>Actividades de Reparacion</t>
-  </si>
-  <si>
-    <t>Enter other repair</t>
-  </si>
-  <si>
-    <t>Ingrese otra reparación</t>
-  </si>
-  <si>
-    <t>other_maintenance</t>
-  </si>
-  <si>
-    <t>Other Maintenance</t>
-  </si>
-  <si>
-    <t>Otro mantenimiento</t>
-  </si>
-  <si>
-    <t>Ingrese otro mantenimiento</t>
-  </si>
-  <si>
-    <t>Enter other maintenance</t>
-  </si>
-  <si>
     <t>other_spare_parts</t>
   </si>
   <si>
     <t>Actualice el estado del refrigerador según sea necesario</t>
   </si>
   <si>
-    <t>Enter comments</t>
-  </si>
-  <si>
-    <t>Ingrese comentarios</t>
-  </si>
-  <si>
     <t>Otras piezas de repuesto reemplazadas/usadas</t>
   </si>
   <si>
@@ -1392,9 +1329,6 @@
     <t>Actualizar estado del refrigerador</t>
   </si>
   <si>
-    <t>preventative_comments</t>
-  </si>
-  <si>
     <t>selected(data('type_of_maintenance'), 'preventative')</t>
   </si>
   <si>
@@ -1450,6 +1384,75 @@
   </si>
   <si>
     <t>selected(data('type_of_maintenance'),  'repair') || selected(data('type_of_maintenance'), 'other')</t>
+  </si>
+  <si>
+    <t>Additional Preventative Maintenance Notes</t>
+  </si>
+  <si>
+    <t>preventative_notes</t>
+  </si>
+  <si>
+    <t>Enter additional preventative maintenance notes</t>
+  </si>
+  <si>
+    <t>other_maintenance_notes</t>
+  </si>
+  <si>
+    <t>Enter additional notes for other maintenance</t>
+  </si>
+  <si>
+    <t>other_repair_notes</t>
+  </si>
+  <si>
+    <t>Enter additional repair notes</t>
+  </si>
+  <si>
+    <t>repair_notes</t>
+  </si>
+  <si>
+    <t>Additional Repair Notes</t>
+  </si>
+  <si>
+    <t>Additional Notes for Other Maintenance</t>
+  </si>
+  <si>
+    <t>Notes for Other Repair Maintenance</t>
+  </si>
+  <si>
+    <t>Notas adicionales para otro mantenimiento</t>
+  </si>
+  <si>
+    <t>Ingrese notas adicionales para otro mantenimiento</t>
+  </si>
+  <si>
+    <t>Notas para otro mantenimiento de reparación</t>
+  </si>
+  <si>
+    <t>Enter notes for other repair maintenance</t>
+  </si>
+  <si>
+    <t>Ingrese notas para otro mantenimiento de reparación</t>
+  </si>
+  <si>
+    <t>Notas de reparación adicionales</t>
+  </si>
+  <si>
+    <t>Ingrese notas de reparación adicionales</t>
+  </si>
+  <si>
+    <t>Notas de mantenimiento preventivo adicionales</t>
+  </si>
+  <si>
+    <t>Ingrese notas de mantenimiento preventivo adicionales</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>Actions Taken</t>
+  </si>
+  <si>
+    <t>Acciones tomadas</t>
   </si>
 </sst>
 </file>
@@ -2155,27 +2158,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2188,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2230,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -2239,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -2300,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2324,29 +2327,29 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2357,23 +2360,23 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
@@ -2384,26 +2387,26 @@
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2433,76 +2436,74 @@
     </row>
     <row r="11" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="31" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>373</v>
-      </c>
+      <c r="E12" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2510,32 +2511,32 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C14" s="1"/>
       <c r="J14" s="9"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="K15" s="22"/>
+    <row r="15" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
@@ -2550,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C17" s="1"/>
       <c r="J17" s="9"/>
@@ -2558,28 +2559,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -2587,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C19" s="1"/>
       <c r="J19" s="9"/>
@@ -2595,22 +2596,22 @@
     </row>
     <row r="20" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -2622,26 +2623,28 @@
       <c r="J21" s="9"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="32" t="s">
-        <v>395</v>
+    <row r="22" spans="1:11" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="K22" s="32"/>
+        <v>459</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -2656,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="9"/>
@@ -2664,45 +2667,48 @@
     </row>
     <row r="25" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>135</v>
-      </c>
       <c r="F25" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E26" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>450</v>
-      </c>
       <c r="J26" s="34" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="K26" s="34"/>
     </row>
@@ -2716,7 +2722,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1"/>
       <c r="J28" s="9"/>
@@ -2727,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C29" s="1"/>
       <c r="J29" s="9"/>
@@ -2742,144 +2748,144 @@
     </row>
     <row r="31" spans="1:11" s="30" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D31" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>340</v>
-      </c>
       <c r="F31" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="I31" s="30" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D32" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>341</v>
-      </c>
       <c r="F32" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D33" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>342</v>
-      </c>
       <c r="F33" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>343</v>
-      </c>
       <c r="F34" s="30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C35" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>339</v>
-      </c>
       <c r="E36" s="30" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="K36" s="34"/>
     </row>
@@ -2888,47 +2894,47 @@
         <v>12</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="32" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="I39" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="J39" s="30" t="s">
         <v>430</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2941,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2957,10 +2963,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2969,417 +2975,417 @@
         <v>6</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C23" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="D27" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E29" s="29"/>
     </row>
@@ -3390,106 +3396,106 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E38" s="29"/>
     </row>
@@ -3503,829 +3509,829 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
         <v>174</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
         <v>173</v>
       </c>
-      <c r="C46" t="s">
-        <v>178</v>
-      </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D70" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D88" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D99" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4357,54 +4363,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4439,10 +4445,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4451,56 +4457,56 @@
         <v>6</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" s="23"/>
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" s="23"/>
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6">
         <v>20170804</v>
@@ -4510,7 +4516,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -4520,47 +4526,47 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4588,138 +4594,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
